--- a/misc/Retro Adapter connections.xlsx
+++ b/misc/Retro Adapter connections.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="297">
   <si>
     <t>AVR</t>
   </si>
@@ -34,9 +42,6 @@
     <t>SNES</t>
   </si>
   <si>
-    <t>N64/GC</t>
-  </si>
-  <si>
     <t>(free)</t>
   </si>
   <si>
@@ -884,34 +889,74 @@
   </si>
   <si>
     <t>Left button</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>N64</t>
+  </si>
+  <si>
+    <t>3-GND 4-MGND</t>
+  </si>
+  <si>
+    <t>1-5V and V.Reg.</t>
+  </si>
+  <si>
+    <t>V.Reg to 6-3.4V</t>
+  </si>
+  <si>
+    <t>V.Reg.</t>
+  </si>
+  <si>
+    <t>V.Reg. to 1-3.4V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <strike/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="39">
@@ -919,7 +964,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1150,6 +1195,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1162,6 +1208,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1172,6 +1219,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1180,6 +1228,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1188,491 +1237,848 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="19" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="21" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="22" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="23" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="24" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="19" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="25" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="26" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="27" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="28" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="29" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="30" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="25" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="26" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="27" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="28" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="29" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="30" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="28" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="29" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="21" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="22" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="23" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="24" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="29" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="151">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="31" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="32" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="34" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="35" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="36" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="37" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="37" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="38" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.71"/>
-    <col customWidth="1" min="2" max="2" width="6.0"/>
-    <col customWidth="1" min="3" max="3" width="11.57"/>
-    <col customWidth="1" min="4" max="4" width="12.29"/>
-    <col customWidth="1" min="5" max="5" width="12.57"/>
-    <col customWidth="1" min="6" max="6" width="13.57"/>
-    <col customWidth="1" min="7" max="8" width="11.43"/>
-    <col customWidth="1" min="9" max="9" width="12.43"/>
-    <col customWidth="1" min="10" max="10" width="10.14"/>
-    <col customWidth="1" min="11" max="11" width="10.0"/>
-    <col customWidth="1" min="12" max="12" width="13.86"/>
-    <col customWidth="1" min="13" max="13" width="13.0"/>
-    <col customWidth="1" min="14" max="14" width="13.29"/>
-    <col customWidth="1" min="15" max="15" width="9.14"/>
-    <col customWidth="1" min="16" max="16" width="11.29"/>
-    <col customWidth="1" min="17" max="17" width="10.29"/>
-    <col customWidth="1" min="18" max="18" width="15.29"/>
-    <col customWidth="1" min="19" max="19" width="13.14"/>
-    <col customWidth="1" min="20" max="20" width="14.29"/>
-    <col customWidth="1" min="21" max="22" width="15.0"/>
-    <col customWidth="1" min="23" max="23" width="7.14"/>
-    <col customWidth="1" min="24" max="24" width="6.14"/>
-    <col customWidth="1" min="25" max="29" width="17.29"/>
-    <col customWidth="1" min="30" max="30" width="10.43"/>
-    <col customWidth="1" min="31" max="34" width="17.29"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="21" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="7.1640625" customWidth="1"/>
+    <col min="24" max="24" width="6.1640625" customWidth="1"/>
+    <col min="25" max="29" width="17.33203125" customWidth="1"/>
+    <col min="30" max="30" width="10.5" customWidth="1"/>
+    <col min="31" max="34" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:34" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1695,30 +2101,33 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="S1" s="6"/>
       <c r="T1" s="5"/>
@@ -1732,52 +2141,55 @@
       <c r="AG1" s="6"/>
       <c r="AH1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:34" ht="12.75" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
@@ -1786,52 +2198,55 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:34" ht="12.75" customHeight="1">
       <c r="A3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="17">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="23" t="s">
+      <c r="M3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="O3" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>30</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -1840,50 +2255,53 @@
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:34" ht="12.75" customHeight="1">
       <c r="A4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>34</v>
-      </c>
       <c r="I4" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>36</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -1892,50 +2310,53 @@
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:34" ht="12.75" customHeight="1">
       <c r="A5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="28">
+        <v>4</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="28">
-        <v>4.0</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>42</v>
-      </c>
       <c r="G5" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="35" t="s">
         <v>43</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>44</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="36" t="s">
         <v>45</v>
-      </c>
-      <c r="R5" s="36" t="s">
-        <v>46</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -1944,48 +2365,51 @@
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:34" ht="12.75" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="37" t="s">
+      <c r="F6" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="G6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>50</v>
-      </c>
       <c r="H6" s="37" t="s">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>293</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O6" s="39"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="5"/>
@@ -1999,18 +2423,18 @@
       <c r="AG6" s="42"/>
       <c r="AH6" s="42"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:34" ht="12.75" customHeight="1">
       <c r="A7" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="43">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="43">
-        <v>6.0</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
@@ -2018,21 +2442,22 @@
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
       <c r="J7" s="45"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="O7" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -2041,43 +2466,46 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:34" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="28">
+        <v>7</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>63</v>
-      </c>
       <c r="G8" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="L8" s="46"/>
       <c r="M8" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="35" t="s">
         <v>64</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>65</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="47"/>
@@ -2089,50 +2517,53 @@
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:34" ht="12.75" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="37">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>67</v>
-      </c>
       <c r="H9" s="37" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>292</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O9" s="39"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R9" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="5"/>
@@ -2141,44 +2572,47 @@
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:34" ht="12.75" customHeight="1">
       <c r="A10" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="48">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="48">
-        <v>9.0</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="F10" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>73</v>
-      </c>
       <c r="G10" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="I10" s="51"/>
       <c r="J10" s="52"/>
+      <c r="K10" s="50" t="s">
+        <v>104</v>
+      </c>
       <c r="L10" s="53"/>
       <c r="M10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="54"/>
       <c r="R10" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -2191,7 +2625,7 @@
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:34" ht="12.75" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -2199,10 +2633,14 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>296</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="41"/>
@@ -2221,156 +2659,156 @@
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:34" ht="12.75" customHeight="1">
       <c r="A12" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="D12" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="E12" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="F12" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="G12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="H12" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="I12" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="J12" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="K12" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="L12" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="56" t="s">
+      <c r="O12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="56" t="s">
+      <c r="P12" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="O12" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="56" t="s">
+      <c r="Q12" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="Q12" s="56" t="s">
+      <c r="R12" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="56" t="s">
+      <c r="S12" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="S12" s="56" t="s">
+      <c r="T12" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="56" t="s">
+      <c r="U12" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="U12" s="56" t="s">
+      <c r="V12" s="55" t="s">
         <v>93</v>
-      </c>
-      <c r="V12" s="55" t="s">
-        <v>94</v>
       </c>
       <c r="W12" s="55" t="s">
         <v>0</v>
       </c>
       <c r="X12" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y12" s="6"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:34" ht="12.75" customHeight="1">
       <c r="A13" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="F13" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="38" t="s">
+      <c r="H13" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="S13" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" s="38" t="s">
-        <v>98</v>
-      </c>
       <c r="T13" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U13" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V13" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W13" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X13" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="6"/>
       <c r="AA13" s="6"/>
@@ -2382,78 +2820,78 @@
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:34" ht="12.75" customHeight="1">
       <c r="A14" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="48">
+        <v>2</v>
+      </c>
+      <c r="C14" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>100</v>
-      </c>
       <c r="D14" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J14" s="63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N14" s="65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O14" s="65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P14" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R14" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14" s="67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T14" s="68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U14" s="69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V14" s="69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W14" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X14" s="48">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Y14" s="6"/>
       <c r="AA14" s="6"/>
@@ -2465,68 +2903,68 @@
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:34" ht="12.75" customHeight="1">
       <c r="A15" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="17">
+        <v>3</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="24" t="s">
+      <c r="E15" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="F15" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="G15" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="H15" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="I15" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="J15" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="J15" s="73" t="s">
-        <v>108</v>
-      </c>
       <c r="K15" s="74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="75"/>
       <c r="M15" s="75"/>
       <c r="N15" s="75"/>
       <c r="O15" s="75"/>
       <c r="P15" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="Q15" s="76" t="s">
-        <v>110</v>
-      </c>
       <c r="R15" s="76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S15" s="77"/>
       <c r="T15" s="78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U15" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W15" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X15" s="17">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="6"/>
       <c r="AA15" s="6"/>
@@ -2538,70 +2976,70 @@
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:34" ht="12.75" customHeight="1">
       <c r="A16" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="17">
+        <v>4</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="E16" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="F16" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="G16" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="H16" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="I16" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="J16" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="73" t="s">
-        <v>120</v>
-      </c>
       <c r="K16" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" s="75"/>
       <c r="M16" s="75"/>
       <c r="N16" s="75"/>
       <c r="O16" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="P16" s="76" t="s">
+      <c r="Q16" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="Q16" s="76" t="s">
-        <v>123</v>
-      </c>
       <c r="R16" s="76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S16" s="77"/>
       <c r="T16" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U16" s="79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X16" s="17">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y16" s="6"/>
       <c r="AA16" s="6"/>
@@ -2613,76 +3051,76 @@
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:34" ht="12.75" customHeight="1">
       <c r="A17" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="E17" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="F17" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="G17" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="H17" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="I17" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="J17" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="73" t="s">
+      <c r="K17" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="K17" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="80" t="s">
+      <c r="M17" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="M17" s="80" t="s">
+      <c r="N17" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="N17" s="80" t="s">
+      <c r="O17" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="O17" s="80" t="s">
+      <c r="P17" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="P17" s="76" t="s">
+      <c r="Q17" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="Q17" s="76" t="s">
-        <v>139</v>
-      </c>
       <c r="R17" s="76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U17" s="79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W17" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X17" s="17">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2694,76 +3132,76 @@
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:34" ht="12.75" customHeight="1">
       <c r="A18" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="17">
+        <v>6</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="17">
-        <v>6.0</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="24" t="s">
+      <c r="E18" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="F18" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="G18" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="H18" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="I18" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="J18" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="J18" s="73" t="s">
+      <c r="K18" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="K18" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="81" t="s">
+      <c r="P18" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="P18" s="76" t="s">
+      <c r="Q18" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="Q18" s="76" t="s">
-        <v>151</v>
-      </c>
       <c r="R18" s="76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S18" s="77"/>
       <c r="T18" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U18" s="79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V18" s="82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X18" s="17">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Y18" s="6"/>
       <c r="AA18" s="6"/>
@@ -2775,76 +3213,76 @@
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:34" ht="12.75" customHeight="1">
       <c r="A19" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="28">
+        <v>7</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="35" t="s">
+      <c r="E19" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="F19" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="G19" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="36" t="s">
+      <c r="J19" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="J19" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="86" t="s">
+      <c r="L19" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="L19" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="O19" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" s="88" t="s">
+      <c r="Q19" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="Q19" s="88" t="s">
+      <c r="R19" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="R19" s="88" t="s">
+      <c r="S19" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="S19" s="89" t="s">
+      <c r="T19" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="T19" s="90" t="s">
+      <c r="U19" s="91" t="s">
         <v>163</v>
-      </c>
-      <c r="U19" s="91" t="s">
-        <v>164</v>
       </c>
       <c r="V19" s="92"/>
       <c r="W19" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X19" s="28">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Y19" s="6"/>
       <c r="AA19" s="6"/>
@@ -2855,78 +3293,78 @@
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:34" ht="12.75" customHeight="1">
       <c r="A20" s="57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="37">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C20" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="38" t="s">
+      <c r="J20" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J20" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="38" t="s">
+      <c r="Q20" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="L20" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q20" s="38" t="s">
-        <v>167</v>
-      </c>
       <c r="R20" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S20" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T20" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U20" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V20" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W20" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X20" s="37">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Y20" s="6"/>
       <c r="AA20" s="5"/>
@@ -2938,78 +3376,78 @@
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:34" ht="12.75" customHeight="1">
       <c r="A21" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="48">
+        <v>9</v>
+      </c>
+      <c r="C21" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="48">
-        <v>9.0</v>
-      </c>
-      <c r="C21" s="58" t="s">
+      <c r="D21" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" s="94" t="s">
+      <c r="Q21" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="Q21" s="94" t="s">
+      <c r="R21" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="R21" s="94" t="s">
+      <c r="S21" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="S21" s="95" t="s">
-        <v>173</v>
-      </c>
       <c r="T21" s="68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U21" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V21" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W21" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X21" s="48">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="Y21" s="6"/>
       <c r="AA21" s="6"/>
@@ -3021,78 +3459,78 @@
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:34" ht="12.75" customHeight="1">
       <c r="A22" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="17">
+        <v>10</v>
+      </c>
+      <c r="C22" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="17">
-        <v>10.0</v>
-      </c>
-      <c r="C22" s="96" t="s">
-        <v>175</v>
-      </c>
       <c r="D22" s="81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J22" s="99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" s="100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" s="81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M22" s="81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N22" s="81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O22" s="81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P22" s="101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R22" s="101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S22" s="102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T22" s="103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U22" s="104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V22" s="104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X22" s="17">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Y22" s="6"/>
       <c r="AA22" s="6"/>
@@ -3104,78 +3542,78 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:34" ht="12.75" customHeight="1">
       <c r="A23" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="17">
+        <v>11</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="17">
-        <v>11.0</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" s="76" t="s">
+      <c r="Q23" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="Q23" s="76" t="s">
+      <c r="R23" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="R23" s="76" t="s">
+      <c r="S23" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="S23" s="106" t="s">
+      <c r="T23" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="T23" s="78" t="s">
+      <c r="U23" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="U23" s="79" t="s">
-        <v>183</v>
-      </c>
       <c r="V23" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W23" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X23" s="17">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Y23" s="6"/>
       <c r="AA23" s="6"/>
@@ -3187,78 +3625,78 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:34" ht="12.75" customHeight="1">
       <c r="A24" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="17">
+        <v>12</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="17">
-        <v>12.0</v>
-      </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="108" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="108" t="s">
+      <c r="J24" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="73" t="s">
+      <c r="K24" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="K24" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="76" t="s">
+      <c r="Q24" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="Q24" s="76" t="s">
+      <c r="R24" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="R24" s="76" t="s">
+      <c r="S24" s="106" t="s">
         <v>190</v>
       </c>
-      <c r="S24" s="106" t="s">
+      <c r="T24" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="T24" s="78" t="s">
+      <c r="U24" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="U24" s="79" t="s">
-        <v>193</v>
-      </c>
       <c r="V24" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X24" s="17">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="Y24" s="6"/>
       <c r="AA24" s="6"/>
@@ -3270,28 +3708,28 @@
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:34" ht="12.75" customHeight="1">
       <c r="A25" s="109" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="109">
+        <v>13</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="B25" s="109">
-        <v>13.0</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>195</v>
       </c>
       <c r="D25" s="110"/>
       <c r="E25" s="111"/>
       <c r="F25" s="112"/>
       <c r="G25" s="112"/>
       <c r="H25" s="113" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I25" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" s="73" t="s">
         <v>196</v>
-      </c>
-      <c r="J25" s="73" t="s">
-        <v>197</v>
       </c>
       <c r="K25" s="112"/>
       <c r="L25" s="112"/>
@@ -3299,27 +3737,27 @@
       <c r="N25" s="112"/>
       <c r="O25" s="112"/>
       <c r="P25" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q25" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="Q25" s="76" t="s">
+      <c r="R25" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="R25" s="76" t="s">
+      <c r="S25" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="S25" s="106" t="s">
+      <c r="T25" s="78" t="s">
         <v>201</v>
-      </c>
-      <c r="T25" s="78" t="s">
-        <v>202</v>
       </c>
       <c r="U25" s="112"/>
       <c r="V25" s="112"/>
       <c r="W25" s="109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X25" s="109">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="Y25" s="6"/>
       <c r="AA25" s="6"/>
@@ -3331,58 +3769,58 @@
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:34" ht="12.75" customHeight="1">
       <c r="A26" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="26">
+        <v>14</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="26">
-        <v>14.0</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>32</v>
-      </c>
       <c r="D26" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E26" s="114"/>
       <c r="F26" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G26" s="115"/>
       <c r="H26" s="115"/>
       <c r="I26" s="114"/>
       <c r="J26" s="73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26" s="74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L26" s="114"/>
       <c r="M26" s="114"/>
       <c r="N26" s="114"/>
       <c r="O26" s="114"/>
       <c r="P26" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q26" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="Q26" s="76" t="s">
+      <c r="R26" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="R26" s="76" t="s">
+      <c r="S26" s="106" t="s">
         <v>207</v>
       </c>
-      <c r="S26" s="106" t="s">
+      <c r="T26" s="78" t="s">
         <v>208</v>
-      </c>
-      <c r="T26" s="78" t="s">
-        <v>209</v>
       </c>
       <c r="U26" s="115"/>
       <c r="V26" s="115"/>
       <c r="W26" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X26" s="26">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Y26" s="6"/>
       <c r="AA26" s="6"/>
@@ -3394,18 +3832,18 @@
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:34" ht="12.75" customHeight="1">
       <c r="A27" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="26">
         <v>15</v>
       </c>
-      <c r="B27" s="26">
-        <v>15.0</v>
-      </c>
       <c r="C27" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E27" s="114"/>
       <c r="F27" s="114"/>
@@ -3413,37 +3851,37 @@
       <c r="H27" s="115"/>
       <c r="I27" s="115"/>
       <c r="J27" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" s="74" t="s">
         <v>211</v>
-      </c>
-      <c r="K27" s="74" t="s">
-        <v>212</v>
       </c>
       <c r="L27" s="115"/>
       <c r="M27" s="115"/>
       <c r="N27" s="115"/>
       <c r="O27" s="115"/>
       <c r="P27" s="101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R27" s="101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S27" s="102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T27" s="78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U27" s="115"/>
       <c r="V27" s="115"/>
       <c r="W27" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="X27" s="26">
         <v>15</v>
-      </c>
-      <c r="X27" s="26">
-        <v>15.0</v>
       </c>
       <c r="Y27" s="6"/>
       <c r="AA27" s="6"/>
@@ -3455,7 +3893,7 @@
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:34" ht="12.75" customHeight="1">
       <c r="A28" s="40"/>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
@@ -3490,7 +3928,7 @@
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:34" ht="12.75" customHeight="1">
       <c r="A29" s="116"/>
       <c r="B29" s="116"/>
       <c r="C29" s="116"/>
@@ -3499,11 +3937,13 @@
       <c r="F29" s="116"/>
       <c r="G29" s="116"/>
       <c r="N29" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="P29" s="143" t="s">
         <v>214</v>
       </c>
-      <c r="P29" s="72" t="s">
-        <v>215</v>
-      </c>
+      <c r="Q29" s="142"/>
+      <c r="R29" s="142"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
@@ -3516,24 +3956,30 @@
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
     </row>
-    <row r="30">
-      <c r="A30" s="117" t="s">
+    <row r="30" spans="1:34" ht="12.75" customHeight="1">
+      <c r="A30" s="150" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="142"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="N30" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="N30" s="72" t="s">
+      <c r="P30" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="P30" s="72" t="s">
-        <v>218</v>
-      </c>
+      <c r="Q30" s="142"/>
+      <c r="R30" s="142"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="W30" s="55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X30" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA30" s="5"/>
       <c r="AB30" s="6"/>
@@ -3544,18 +3990,20 @@
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
     </row>
-    <row r="31">
-      <c r="P31" s="72" t="s">
-        <v>220</v>
-      </c>
+    <row r="31" spans="1:34" ht="12.75" customHeight="1">
+      <c r="P31" s="143" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q31" s="142"/>
+      <c r="R31" s="142"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="W31" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X31" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="5"/>
       <c r="AB31" s="6"/>
@@ -3566,26 +4014,32 @@
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:34" ht="12.75" customHeight="1">
       <c r="A32" s="117" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="147" t="s">
         <v>221</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>222</v>
-      </c>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="L32" s="72" t="s">
-        <v>223</v>
-      </c>
+      <c r="L32" s="143" t="s">
+        <v>222</v>
+      </c>
+      <c r="M32" s="142"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="142"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="W32" s="48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X32" s="48">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA32" s="5"/>
       <c r="AB32" s="6"/>
@@ -3596,17 +4050,20 @@
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
     </row>
-    <row r="33">
-      <c r="B33" s="109" t="s">
-        <v>224</v>
-      </c>
+    <row r="33" spans="1:34" ht="12.75" customHeight="1">
+      <c r="B33" s="149" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="S33" s="6"/>
       <c r="U33" s="6"/>
       <c r="W33" s="5"/>
       <c r="X33" s="17">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA33" s="5"/>
       <c r="AB33" s="6"/>
@@ -3617,15 +4074,18 @@
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
     </row>
-    <row r="34">
-      <c r="B34" s="118" t="s">
-        <v>225</v>
-      </c>
+    <row r="34" spans="1:34" ht="12.75" customHeight="1">
+      <c r="B34" s="148" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
       <c r="S34" s="6"/>
       <c r="U34" s="6"/>
       <c r="W34" s="116"/>
       <c r="X34" s="17">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA34" s="5"/>
       <c r="AB34" s="6"/>
@@ -3636,15 +4096,18 @@
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
     </row>
-    <row r="35">
-      <c r="B35" s="119" t="s">
-        <v>226</v>
-      </c>
+    <row r="35" spans="1:34" ht="12.75" customHeight="1">
+      <c r="B35" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
       <c r="S35" s="6"/>
       <c r="U35" s="6"/>
       <c r="W35" s="116"/>
       <c r="X35" s="17">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA35" s="5"/>
       <c r="AB35" s="6"/>
@@ -3655,18 +4118,20 @@
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:34" ht="12.75" customHeight="1">
       <c r="B36" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>227</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C36" s="143" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
       <c r="S36" s="6"/>
       <c r="U36" s="6"/>
       <c r="W36" s="116"/>
       <c r="X36" s="17">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AA36" s="5"/>
       <c r="AB36" s="6"/>
@@ -3677,19 +4142,21 @@
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:34" ht="12.75" customHeight="1">
       <c r="B37" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="72" t="s">
-        <v>228</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C37" s="143" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" s="142"/>
+      <c r="E37" s="142"/>
       <c r="R37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
-      <c r="W37" s="120"/>
+      <c r="W37" s="119"/>
       <c r="X37" s="28">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AA37" s="5"/>
       <c r="AB37" s="6"/>
@@ -3700,7 +4167,7 @@
       <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:34" ht="12.75" customHeight="1">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -3711,7 +4178,7 @@
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="121"/>
+      <c r="K38" s="120"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -3720,10 +4187,10 @@
       <c r="R38" s="6"/>
       <c r="U38" s="6"/>
       <c r="W38" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X38" s="37">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AA38" s="5"/>
       <c r="AB38" s="6"/>
@@ -3734,7 +4201,7 @@
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:34" ht="12.75" customHeight="1">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -3745,7 +4212,7 @@
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="121"/>
+      <c r="K39" s="120"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -3754,10 +4221,10 @@
       <c r="R39" s="6"/>
       <c r="U39" s="6"/>
       <c r="W39" s="48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X39" s="48">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AA39" s="5"/>
       <c r="AB39" s="6"/>
@@ -3768,656 +4235,660 @@
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:34" ht="12.75" customHeight="1">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
       <c r="D40" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="F40" s="122" t="s">
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="L40" s="146" t="s">
         <v>230</v>
       </c>
-      <c r="L40" s="122" t="s">
+      <c r="M40" s="142"/>
+      <c r="N40" s="142"/>
+      <c r="O40" s="6"/>
+      <c r="Q40" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="O40" s="6"/>
-      <c r="Q40" s="56" t="s">
+      <c r="R40" s="145"/>
+      <c r="T40" s="56" t="s">
         <v>232</v>
-      </c>
-      <c r="R40" s="123"/>
-      <c r="T40" s="56" t="s">
-        <v>233</v>
       </c>
       <c r="U40" s="55" t="s">
         <v>0</v>
       </c>
       <c r="W40" s="116"/>
       <c r="X40" s="17">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA40" s="116"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:34" ht="12.75" customHeight="1">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
-      <c r="D41" s="124" t="s">
+      <c r="D41" s="121" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="G41" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="H41" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="H41" s="29" t="s">
-        <v>237</v>
-      </c>
       <c r="L41" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="M41" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="M41" s="18" t="s">
+      <c r="N41" s="18" t="s">
         <v>236</v>
-      </c>
-      <c r="N41" s="18" t="s">
-        <v>237</v>
       </c>
       <c r="O41" s="6"/>
       <c r="Q41" s="48">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="T41" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="T41" s="38" t="s">
-        <v>239</v>
-      </c>
       <c r="U41" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W41" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X41" s="17">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AA41" s="116"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:34" ht="12.75" customHeight="1">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
-      <c r="D42" s="125" t="s">
+      <c r="D42" s="122" t="s">
+        <v>239</v>
+      </c>
+      <c r="F42" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="G42" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="G42" s="48" t="s">
-        <v>242</v>
-      </c>
       <c r="H42" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L42" s="72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M42" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="N42" s="126" t="s">
-        <v>243</v>
+      <c r="N42" s="123" t="s">
+        <v>242</v>
       </c>
       <c r="O42" s="6"/>
       <c r="Q42" s="17">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R42" s="72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U42" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W42" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X42" s="17">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="12.75" customHeight="1">
       <c r="A43" s="40"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
-      <c r="D43" s="127" t="s">
+      <c r="D43" s="124" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>245</v>
-      </c>
       <c r="G43" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="H43" s="124" t="s">
-        <v>234</v>
+        <v>241</v>
+      </c>
+      <c r="H43" s="121" t="s">
+        <v>233</v>
       </c>
       <c r="O43" s="6"/>
       <c r="Q43" s="17">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R43" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="T43" s="128" t="s">
-        <v>246</v>
+        <v>69</v>
+      </c>
+      <c r="T43" s="125" t="s">
+        <v>245</v>
       </c>
       <c r="U43" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="W43" s="129"/>
+        <v>100</v>
+      </c>
+      <c r="W43" s="126"/>
       <c r="X43" s="109">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" ht="12.75" customHeight="1">
       <c r="A44" s="40"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
-      <c r="D44" s="130" t="s">
+      <c r="D44" s="127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" s="122" t="s">
+        <v>239</v>
+      </c>
+      <c r="L44" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="F44" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="H44" s="125" t="s">
-        <v>240</v>
-      </c>
-      <c r="L44" s="17" t="s">
-        <v>248</v>
-      </c>
       <c r="M44" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N44" s="124" t="s">
-        <v>234</v>
+        <v>76</v>
+      </c>
+      <c r="N44" s="121" t="s">
+        <v>233</v>
       </c>
       <c r="O44" s="6"/>
       <c r="Q44" s="17">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R44" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="T44" s="128" t="s">
-        <v>249</v>
+        <v>19</v>
+      </c>
+      <c r="T44" s="125" t="s">
+        <v>248</v>
       </c>
       <c r="U44" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W44" s="114"/>
       <c r="X44" s="26">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" ht="12.75" customHeight="1">
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
-      <c r="D45" s="131" t="s">
+      <c r="D45" s="128" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="G45" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H45" s="124" t="s">
+        <v>243</v>
+      </c>
+      <c r="L45" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="G45" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="H45" s="127" t="s">
-        <v>244</v>
-      </c>
-      <c r="L45" s="17" t="s">
-        <v>252</v>
-      </c>
       <c r="M45" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N45" s="125" t="s">
-        <v>240</v>
+        <v>76</v>
+      </c>
+      <c r="N45" s="122" t="s">
+        <v>239</v>
       </c>
       <c r="O45" s="6"/>
       <c r="Q45" s="17">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R45" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="T45" s="125" t="s">
         <v>253</v>
       </c>
-      <c r="T45" s="128" t="s">
-        <v>254</v>
-      </c>
       <c r="U45" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W45" s="114"/>
       <c r="X45" s="26">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" ht="12.75" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="132" t="s">
+      <c r="D46" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="F46" s="72" t="s">
+      <c r="G46" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="127" t="s">
+        <v>246</v>
+      </c>
+      <c r="L46" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="H46" s="130" t="s">
-        <v>247</v>
-      </c>
-      <c r="L46" s="17" t="s">
-        <v>257</v>
-      </c>
       <c r="M46" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N46" s="127" t="s">
-        <v>244</v>
+        <v>76</v>
+      </c>
+      <c r="N46" s="124" t="s">
+        <v>243</v>
       </c>
       <c r="O46" s="6"/>
       <c r="Q46" s="17">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="R46" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="T46" s="128" t="s">
-        <v>258</v>
+        <v>26</v>
+      </c>
+      <c r="T46" s="125" t="s">
+        <v>257</v>
       </c>
       <c r="U46" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" ht="12.75" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="F47" s="72" t="s">
+      <c r="G47" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="G47" s="72" t="s">
+      <c r="H47" s="123" t="s">
+        <v>242</v>
+      </c>
+      <c r="L47" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="H47" s="126" t="s">
-        <v>243</v>
-      </c>
-      <c r="L47" s="72" t="s">
-        <v>262</v>
-      </c>
       <c r="M47" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="N47" s="131" t="s">
-        <v>250</v>
+        <v>76</v>
+      </c>
+      <c r="N47" s="128" t="s">
+        <v>249</v>
       </c>
       <c r="O47" s="6"/>
       <c r="Q47" s="17">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="R47" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="T47" s="130" t="s">
         <v>263</v>
       </c>
-      <c r="T47" s="133" t="s">
-        <v>264</v>
-      </c>
       <c r="U47" s="28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="134"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="126" t="s">
-        <v>243</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" ht="12.75" customHeight="1">
+      <c r="A48" s="131"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="123" t="s">
+        <v>242</v>
       </c>
       <c r="F48" s="72" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="72" t="s">
-        <v>265</v>
-      </c>
-      <c r="H48" s="131" t="s">
-        <v>250</v>
+        <v>264</v>
+      </c>
+      <c r="H48" s="128" t="s">
+        <v>249</v>
       </c>
       <c r="O48" s="6"/>
       <c r="Q48" s="17">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="R48" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T48" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U48" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="12.75" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="137" t="s">
+      <c r="D49" s="134" t="s">
+        <v>266</v>
+      </c>
+      <c r="L49" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="L49" s="17" t="s">
+      <c r="M49" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="M49" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="N49" s="138" t="s">
-        <v>267</v>
+      <c r="N49" s="135" t="s">
+        <v>266</v>
       </c>
       <c r="O49" s="6"/>
       <c r="Q49" s="17">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="R49" s="72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U49" s="48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="12.75" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="139" t="s">
+      <c r="D50" s="136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F50" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="H50" s="132" t="s">
-        <v>255</v>
+      <c r="H50" s="129" t="s">
+        <v>254</v>
       </c>
       <c r="O50" s="6"/>
       <c r="T50" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U50" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="12.75" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="140" t="s">
+      <c r="D51" s="137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F51" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="G51" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H51" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="O51" s="6"/>
+      <c r="Q51" s="144" t="s">
         <v>274</v>
       </c>
-      <c r="G51" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="H51" s="118" t="s">
-        <v>259</v>
-      </c>
-      <c r="O51" s="6"/>
-      <c r="Q51" s="56" t="s">
+      <c r="R51" s="145"/>
+      <c r="T51" s="125" t="s">
         <v>275</v>
       </c>
-      <c r="R51" s="123"/>
-      <c r="T51" s="128" t="s">
-        <v>276</v>
-      </c>
       <c r="U51" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="12.75" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="F52" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="H52" s="125" t="s">
-        <v>240</v>
+        <v>271</v>
+      </c>
+      <c r="H52" s="122" t="s">
+        <v>239</v>
       </c>
       <c r="O52" s="6"/>
       <c r="Q52" s="48">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="T52" s="128" t="s">
-        <v>278</v>
+        <v>26</v>
+      </c>
+      <c r="T52" s="125" t="s">
+        <v>277</v>
       </c>
       <c r="U52" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="134"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A53" s="131"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="O53" s="6"/>
       <c r="Q53" s="17">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R53" s="72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T53" s="113" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U53" s="109" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="12.75" customHeight="1">
       <c r="A54" s="40"/>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
       <c r="F54" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="G54" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="G54" s="72" t="s">
-        <v>281</v>
-      </c>
-      <c r="H54" s="126" t="s">
-        <v>243</v>
+      <c r="H54" s="123" t="s">
+        <v>242</v>
       </c>
       <c r="O54" s="6"/>
       <c r="Q54" s="17">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="R54" s="72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T54" s="115"/>
       <c r="U54" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="12.75" customHeight="1">
       <c r="A55" s="40"/>
       <c r="B55" s="40"/>
       <c r="C55" s="6"/>
       <c r="D55" s="116"/>
       <c r="E55" s="116"/>
       <c r="F55" s="72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G55" s="72" t="s">
-        <v>281</v>
-      </c>
-      <c r="H55" s="130" t="s">
-        <v>247</v>
+        <v>280</v>
+      </c>
+      <c r="H55" s="127" t="s">
+        <v>246</v>
       </c>
       <c r="O55" s="6"/>
       <c r="Q55" s="17">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="R55" s="72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T55" s="115"/>
       <c r="U55" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="12.75" customHeight="1">
       <c r="A56" s="40"/>
       <c r="B56" s="40"/>
       <c r="C56" s="6"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="17">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="R56" s="72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:21" ht="12.75" customHeight="1">
       <c r="A57" s="40"/>
       <c r="B57" s="40"/>
       <c r="C57" s="6"/>
       <c r="F57" s="72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G57" s="72" t="s">
-        <v>283</v>
-      </c>
-      <c r="H57" s="137" t="s">
-        <v>267</v>
+        <v>282</v>
+      </c>
+      <c r="H57" s="134" t="s">
+        <v>266</v>
       </c>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="17">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="R57" s="72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:21" ht="12.75" customHeight="1">
       <c r="A58" s="40"/>
       <c r="B58" s="40"/>
       <c r="C58" s="40"/>
       <c r="F58" s="72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="72" t="s">
-        <v>284</v>
-      </c>
-      <c r="H58" s="127" t="s">
-        <v>244</v>
+        <v>283</v>
+      </c>
+      <c r="H58" s="124" t="s">
+        <v>243</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="17">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="R58" s="72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:21" ht="12.75" customHeight="1">
       <c r="A59" s="40"/>
       <c r="B59" s="40"/>
-      <c r="C59" s="141"/>
+      <c r="C59" s="138"/>
       <c r="F59" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="H59" s="130" t="s">
-        <v>247</v>
+        <v>285</v>
+      </c>
+      <c r="H59" s="127" t="s">
+        <v>246</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="17">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="R59" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:21" ht="12.75" customHeight="1">
       <c r="A60" s="40"/>
       <c r="B60" s="40"/>
-      <c r="C60" s="142"/>
+      <c r="C60" s="139"/>
       <c r="D60" s="116"/>
       <c r="E60" s="116"/>
       <c r="F60" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="G60" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="G60" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="H60" s="126" t="s">
-        <v>243</v>
+      <c r="H60" s="123" t="s">
+        <v>242</v>
       </c>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="17">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="R60" s="72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:21" ht="12.75" customHeight="1">
       <c r="A61" s="40"/>
       <c r="B61" s="40"/>
-      <c r="C61" s="142"/>
+      <c r="C61" s="139"/>
       <c r="D61" s="40"/>
       <c r="E61" s="40"/>
       <c r="F61" s="6"/>
@@ -4428,7 +4899,7 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="142"/>
+      <c r="N61" s="139"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
@@ -4437,7 +4908,7 @@
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:21" ht="12.75" customHeight="1">
       <c r="A62" s="40"/>
       <c r="B62" s="40"/>
       <c r="C62" s="6"/>
@@ -4445,7 +4916,7 @@
       <c r="E62" s="40"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="142"/>
+      <c r="H62" s="139"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -4460,10 +4931,10 @@
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:21" ht="12.75" customHeight="1">
       <c r="A63" s="40"/>
       <c r="B63" s="40"/>
-      <c r="C63" s="142"/>
+      <c r="C63" s="139"/>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
       <c r="F63" s="6"/>
@@ -4474,7 +4945,7 @@
       <c r="K63" s="6"/>
       <c r="L63" s="40"/>
       <c r="M63" s="40"/>
-      <c r="N63" s="142"/>
+      <c r="N63" s="139"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -4483,7 +4954,7 @@
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:21" ht="12.75" customHeight="1">
       <c r="A64" s="40"/>
       <c r="B64" s="40"/>
       <c r="C64" s="6"/>
@@ -4506,7 +4977,7 @@
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:21" ht="12.75" customHeight="1">
       <c r="A65" s="40"/>
       <c r="B65" s="40"/>
       <c r="C65" s="6"/>
@@ -4529,7 +5000,7 @@
       <c r="T65" s="6"/>
       <c r="U65" s="6"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:21" ht="12.75" customHeight="1">
       <c r="A66" s="40"/>
       <c r="B66" s="40"/>
       <c r="C66" s="6"/>
@@ -4537,7 +5008,7 @@
       <c r="E66" s="40"/>
       <c r="F66" s="40"/>
       <c r="G66" s="40"/>
-      <c r="H66" s="142"/>
+      <c r="H66" s="139"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -4552,10 +5023,10 @@
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:21" ht="12.75" customHeight="1">
       <c r="A67" s="40"/>
       <c r="B67" s="40"/>
-      <c r="C67" s="141"/>
+      <c r="C67" s="138"/>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
       <c r="F67" s="6"/>
@@ -4575,10 +5046,10 @@
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:21" ht="12.75" customHeight="1">
       <c r="A68" s="40"/>
       <c r="B68" s="40"/>
-      <c r="C68" s="141"/>
+      <c r="C68" s="138"/>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
       <c r="F68" s="6"/>
@@ -4598,7 +5069,7 @@
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:21" ht="12.75" customHeight="1">
       <c r="A69" s="40"/>
       <c r="B69" s="40"/>
       <c r="C69" s="40"/>
@@ -4621,7 +5092,7 @@
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:21" ht="12.75" customHeight="1">
       <c r="A70" s="40"/>
       <c r="B70" s="40"/>
       <c r="C70" s="40"/>
@@ -4644,7 +5115,7 @@
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:21" ht="12.75" customHeight="1">
       <c r="A71" s="40"/>
       <c r="B71" s="40"/>
       <c r="C71" s="40"/>
@@ -4652,7 +5123,7 @@
       <c r="E71" s="40"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="141"/>
+      <c r="H71" s="138"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -4667,7 +5138,7 @@
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:21" ht="12.75" customHeight="1">
       <c r="A72" s="40"/>
       <c r="B72" s="40"/>
       <c r="C72" s="40"/>
@@ -4675,7 +5146,7 @@
       <c r="E72" s="40"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="142"/>
+      <c r="H72" s="139"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -4690,7 +5161,7 @@
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:21" ht="12.75" customHeight="1">
       <c r="A73" s="40"/>
       <c r="B73" s="40"/>
       <c r="C73" s="40"/>
@@ -4713,7 +5184,7 @@
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:21" ht="12.75" customHeight="1">
       <c r="A74" s="40"/>
       <c r="B74" s="40"/>
       <c r="C74" s="40"/>
@@ -4736,7 +5207,7 @@
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:21" ht="12.75" customHeight="1">
       <c r="A75" s="40"/>
       <c r="B75" s="40"/>
       <c r="C75" s="40"/>
@@ -4759,309 +5230,304 @@
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
     </row>
-    <row r="76">
-      <c r="A76" s="143"/>
-      <c r="B76" s="143"/>
-      <c r="C76" s="143"/>
-      <c r="D76" s="143"/>
-      <c r="E76" s="143"/>
+    <row r="76" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A76" s="140"/>
+      <c r="B76" s="140"/>
+      <c r="C76" s="140"/>
+      <c r="D76" s="140"/>
+      <c r="E76" s="140"/>
       <c r="N76" s="42"/>
     </row>
-    <row r="77">
-      <c r="A77" s="143"/>
-      <c r="B77" s="143"/>
-      <c r="C77" s="143"/>
-      <c r="D77" s="143"/>
-      <c r="E77" s="143"/>
+    <row r="77" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A77" s="140"/>
+      <c r="B77" s="140"/>
+      <c r="C77" s="140"/>
+      <c r="D77" s="140"/>
+      <c r="E77" s="140"/>
       <c r="N77" s="42"/>
     </row>
-    <row r="78">
-      <c r="A78" s="143"/>
-      <c r="B78" s="143"/>
-      <c r="C78" s="143"/>
-      <c r="D78" s="143"/>
-      <c r="E78" s="143"/>
-      <c r="F78" s="143"/>
-      <c r="G78" s="143"/>
+    <row r="78" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A78" s="140"/>
+      <c r="B78" s="140"/>
+      <c r="C78" s="140"/>
+      <c r="D78" s="140"/>
+      <c r="E78" s="140"/>
+      <c r="F78" s="140"/>
+      <c r="G78" s="140"/>
       <c r="N78" s="42"/>
     </row>
-    <row r="79">
-      <c r="A79" s="143"/>
-      <c r="B79" s="143"/>
-      <c r="C79" s="143"/>
-      <c r="D79" s="143"/>
-      <c r="E79" s="143"/>
-      <c r="F79" s="143"/>
-      <c r="G79" s="143"/>
+    <row r="79" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A79" s="140"/>
+      <c r="B79" s="140"/>
+      <c r="C79" s="140"/>
+      <c r="D79" s="140"/>
+      <c r="E79" s="140"/>
+      <c r="F79" s="140"/>
+      <c r="G79" s="140"/>
       <c r="N79" s="42"/>
     </row>
-    <row r="80">
-      <c r="A80" s="143"/>
-      <c r="B80" s="143"/>
-      <c r="C80" s="143"/>
-      <c r="D80" s="143"/>
-      <c r="E80" s="143"/>
-      <c r="F80" s="143"/>
-      <c r="G80" s="143"/>
+    <row r="80" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A80" s="140"/>
+      <c r="B80" s="140"/>
+      <c r="C80" s="140"/>
+      <c r="D80" s="140"/>
+      <c r="E80" s="140"/>
+      <c r="F80" s="140"/>
+      <c r="G80" s="140"/>
       <c r="N80" s="42"/>
     </row>
-    <row r="81">
-      <c r="A81" s="143"/>
-      <c r="B81" s="143"/>
-      <c r="C81" s="143"/>
-      <c r="D81" s="143"/>
-      <c r="E81" s="143"/>
-      <c r="F81" s="143"/>
-      <c r="G81" s="143"/>
+    <row r="81" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A81" s="140"/>
+      <c r="B81" s="140"/>
+      <c r="C81" s="140"/>
+      <c r="D81" s="140"/>
+      <c r="E81" s="140"/>
+      <c r="F81" s="140"/>
+      <c r="G81" s="140"/>
       <c r="N81" s="42"/>
     </row>
-    <row r="82">
-      <c r="A82" s="143"/>
-      <c r="B82" s="143"/>
-      <c r="C82" s="143"/>
-      <c r="D82" s="143"/>
-      <c r="E82" s="143"/>
-      <c r="F82" s="143"/>
-      <c r="G82" s="143"/>
+    <row r="82" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A82" s="140"/>
+      <c r="B82" s="140"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="140"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="140"/>
       <c r="N82" s="42"/>
     </row>
-    <row r="83">
-      <c r="A83" s="143"/>
-      <c r="B83" s="143"/>
-      <c r="C83" s="143"/>
-      <c r="D83" s="143"/>
-      <c r="E83" s="143"/>
-      <c r="F83" s="143"/>
-      <c r="G83" s="143"/>
+    <row r="83" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A83" s="140"/>
+      <c r="B83" s="140"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="140"/>
+      <c r="F83" s="140"/>
+      <c r="G83" s="140"/>
       <c r="N83" s="42"/>
     </row>
-    <row r="84">
-      <c r="A84" s="143"/>
-      <c r="B84" s="143"/>
-      <c r="C84" s="143"/>
-      <c r="D84" s="143"/>
-      <c r="E84" s="143"/>
-      <c r="F84" s="143"/>
-      <c r="G84" s="143"/>
+    <row r="84" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A84" s="140"/>
+      <c r="B84" s="140"/>
+      <c r="C84" s="140"/>
+      <c r="D84" s="140"/>
+      <c r="E84" s="140"/>
+      <c r="F84" s="140"/>
+      <c r="G84" s="140"/>
       <c r="N84" s="42"/>
     </row>
-    <row r="85">
-      <c r="A85" s="143"/>
-      <c r="B85" s="143"/>
-      <c r="C85" s="143"/>
-      <c r="D85" s="143"/>
-      <c r="E85" s="143"/>
-      <c r="F85" s="143"/>
-      <c r="G85" s="143"/>
+    <row r="85" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A85" s="140"/>
+      <c r="B85" s="140"/>
+      <c r="C85" s="140"/>
+      <c r="D85" s="140"/>
+      <c r="E85" s="140"/>
+      <c r="F85" s="140"/>
+      <c r="G85" s="140"/>
       <c r="N85" s="42"/>
     </row>
-    <row r="86">
-      <c r="A86" s="143"/>
-      <c r="B86" s="143"/>
-      <c r="C86" s="143"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="143"/>
-      <c r="F86" s="143"/>
-      <c r="G86" s="143"/>
+    <row r="86" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A86" s="140"/>
+      <c r="B86" s="140"/>
+      <c r="C86" s="140"/>
+      <c r="D86" s="140"/>
+      <c r="E86" s="140"/>
+      <c r="F86" s="140"/>
+      <c r="G86" s="140"/>
       <c r="N86" s="42"/>
     </row>
-    <row r="87">
-      <c r="A87" s="143"/>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="143"/>
-      <c r="G87" s="143"/>
+    <row r="87" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A87" s="140"/>
+      <c r="B87" s="140"/>
+      <c r="C87" s="140"/>
+      <c r="D87" s="140"/>
+      <c r="E87" s="140"/>
+      <c r="F87" s="140"/>
+      <c r="G87" s="140"/>
       <c r="N87" s="42"/>
     </row>
-    <row r="88">
-      <c r="A88" s="143"/>
-      <c r="B88" s="143"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="143"/>
-      <c r="E88" s="143"/>
-      <c r="F88" s="143"/>
-      <c r="G88" s="143"/>
+    <row r="88" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A88" s="140"/>
+      <c r="B88" s="140"/>
+      <c r="C88" s="140"/>
+      <c r="D88" s="140"/>
+      <c r="E88" s="140"/>
+      <c r="F88" s="140"/>
+      <c r="G88" s="140"/>
       <c r="N88" s="42"/>
     </row>
-    <row r="89">
-      <c r="A89" s="143"/>
-      <c r="B89" s="143"/>
-      <c r="C89" s="143"/>
-      <c r="D89" s="143"/>
-      <c r="E89" s="143"/>
-      <c r="F89" s="143"/>
-      <c r="G89" s="143"/>
+    <row r="89" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A89" s="140"/>
+      <c r="B89" s="140"/>
+      <c r="C89" s="140"/>
+      <c r="D89" s="140"/>
+      <c r="E89" s="140"/>
+      <c r="F89" s="140"/>
+      <c r="G89" s="140"/>
       <c r="N89" s="42"/>
     </row>
-    <row r="90">
-      <c r="A90" s="143"/>
-      <c r="B90" s="143"/>
-      <c r="C90" s="143"/>
-      <c r="D90" s="143"/>
-      <c r="E90" s="143"/>
-      <c r="F90" s="143"/>
-      <c r="G90" s="143"/>
+    <row r="90" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A90" s="140"/>
+      <c r="B90" s="140"/>
+      <c r="C90" s="140"/>
+      <c r="D90" s="140"/>
+      <c r="E90" s="140"/>
+      <c r="F90" s="140"/>
+      <c r="G90" s="140"/>
       <c r="N90" s="42"/>
     </row>
-    <row r="91">
-      <c r="A91" s="143"/>
-      <c r="B91" s="143"/>
-      <c r="C91" s="143"/>
-      <c r="D91" s="143"/>
-      <c r="E91" s="143"/>
-      <c r="F91" s="143"/>
-      <c r="G91" s="143"/>
+    <row r="91" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A91" s="140"/>
+      <c r="B91" s="140"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="140"/>
+      <c r="F91" s="140"/>
+      <c r="G91" s="140"/>
       <c r="N91" s="42"/>
     </row>
-    <row r="92">
-      <c r="A92" s="143"/>
-      <c r="B92" s="143"/>
-      <c r="C92" s="143"/>
-      <c r="D92" s="143"/>
-      <c r="E92" s="143"/>
-      <c r="F92" s="143"/>
-      <c r="G92" s="143"/>
+    <row r="92" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A92" s="140"/>
+      <c r="B92" s="140"/>
+      <c r="C92" s="140"/>
+      <c r="D92" s="140"/>
+      <c r="E92" s="140"/>
+      <c r="F92" s="140"/>
+      <c r="G92" s="140"/>
       <c r="N92" s="42"/>
     </row>
-    <row r="93">
-      <c r="A93" s="143"/>
-      <c r="B93" s="143"/>
-      <c r="C93" s="143"/>
-      <c r="D93" s="143"/>
-      <c r="E93" s="143"/>
-      <c r="F93" s="143"/>
-      <c r="G93" s="143"/>
+    <row r="93" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A93" s="140"/>
+      <c r="B93" s="140"/>
+      <c r="C93" s="140"/>
+      <c r="D93" s="140"/>
+      <c r="E93" s="140"/>
+      <c r="F93" s="140"/>
+      <c r="G93" s="140"/>
       <c r="N93" s="42"/>
     </row>
-    <row r="94">
-      <c r="A94" s="143"/>
-      <c r="B94" s="143"/>
-      <c r="C94" s="143"/>
-      <c r="D94" s="143"/>
-      <c r="E94" s="143"/>
-      <c r="F94" s="143"/>
-      <c r="G94" s="143"/>
+    <row r="94" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A94" s="140"/>
+      <c r="B94" s="140"/>
+      <c r="C94" s="140"/>
+      <c r="D94" s="140"/>
+      <c r="E94" s="140"/>
+      <c r="F94" s="140"/>
+      <c r="G94" s="140"/>
       <c r="N94" s="42"/>
     </row>
-    <row r="95">
-      <c r="A95" s="143"/>
-      <c r="B95" s="143"/>
-      <c r="C95" s="143"/>
-      <c r="D95" s="143"/>
-      <c r="E95" s="143"/>
-      <c r="F95" s="143"/>
-      <c r="G95" s="143"/>
+    <row r="95" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A95" s="140"/>
+      <c r="B95" s="140"/>
+      <c r="C95" s="140"/>
+      <c r="D95" s="140"/>
+      <c r="E95" s="140"/>
+      <c r="F95" s="140"/>
+      <c r="G95" s="140"/>
       <c r="N95" s="42"/>
     </row>
-    <row r="96">
-      <c r="A96" s="143"/>
-      <c r="B96" s="143"/>
-      <c r="C96" s="143"/>
-      <c r="D96" s="143"/>
-      <c r="E96" s="143"/>
-      <c r="F96" s="143"/>
-      <c r="G96" s="143"/>
+    <row r="96" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A96" s="140"/>
+      <c r="B96" s="140"/>
+      <c r="C96" s="140"/>
+      <c r="D96" s="140"/>
+      <c r="E96" s="140"/>
+      <c r="F96" s="140"/>
+      <c r="G96" s="140"/>
       <c r="N96" s="42"/>
     </row>
-    <row r="97">
-      <c r="A97" s="143"/>
-      <c r="B97" s="143"/>
-      <c r="C97" s="143"/>
-      <c r="D97" s="143"/>
-      <c r="E97" s="143"/>
-      <c r="F97" s="143"/>
-      <c r="G97" s="143"/>
+    <row r="97" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A97" s="140"/>
+      <c r="B97" s="140"/>
+      <c r="C97" s="140"/>
+      <c r="D97" s="140"/>
+      <c r="E97" s="140"/>
+      <c r="F97" s="140"/>
+      <c r="G97" s="140"/>
       <c r="N97" s="42"/>
     </row>
-    <row r="98">
-      <c r="A98" s="143"/>
-      <c r="B98" s="143"/>
-      <c r="C98" s="143"/>
-      <c r="D98" s="143"/>
-      <c r="E98" s="143"/>
-      <c r="F98" s="143"/>
-      <c r="G98" s="143"/>
+    <row r="98" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A98" s="140"/>
+      <c r="B98" s="140"/>
+      <c r="C98" s="140"/>
+      <c r="D98" s="140"/>
+      <c r="E98" s="140"/>
+      <c r="F98" s="140"/>
+      <c r="G98" s="140"/>
       <c r="N98" s="42"/>
     </row>
-    <row r="99">
-      <c r="A99" s="143"/>
-      <c r="B99" s="143"/>
-      <c r="C99" s="143"/>
-      <c r="D99" s="143"/>
-      <c r="E99" s="143"/>
-      <c r="F99" s="143"/>
-      <c r="G99" s="143"/>
+    <row r="99" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A99" s="140"/>
+      <c r="B99" s="140"/>
+      <c r="C99" s="140"/>
+      <c r="D99" s="140"/>
+      <c r="E99" s="140"/>
+      <c r="F99" s="140"/>
+      <c r="G99" s="140"/>
       <c r="N99" s="42"/>
     </row>
-    <row r="100">
-      <c r="A100" s="143"/>
-      <c r="B100" s="143"/>
-      <c r="C100" s="143"/>
-      <c r="D100" s="143"/>
-      <c r="E100" s="143"/>
-      <c r="F100" s="143"/>
-      <c r="G100" s="143"/>
+    <row r="100" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A100" s="140"/>
+      <c r="B100" s="140"/>
+      <c r="C100" s="140"/>
+      <c r="D100" s="140"/>
+      <c r="E100" s="140"/>
+      <c r="F100" s="140"/>
+      <c r="G100" s="140"/>
       <c r="N100" s="42"/>
     </row>
-    <row r="101">
-      <c r="A101" s="143"/>
-      <c r="B101" s="143"/>
-      <c r="C101" s="143"/>
-      <c r="D101" s="143"/>
-      <c r="E101" s="143"/>
-      <c r="F101" s="143"/>
-      <c r="G101" s="143"/>
+    <row r="101" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A101" s="140"/>
+      <c r="B101" s="140"/>
+      <c r="C101" s="140"/>
+      <c r="D101" s="140"/>
+      <c r="E101" s="140"/>
+      <c r="F101" s="140"/>
+      <c r="G101" s="140"/>
       <c r="N101" s="42"/>
     </row>
-    <row r="102">
-      <c r="A102" s="143"/>
-      <c r="B102" s="143"/>
-      <c r="C102" s="143"/>
-      <c r="D102" s="143"/>
-      <c r="E102" s="143"/>
-      <c r="F102" s="143"/>
-      <c r="G102" s="143"/>
+    <row r="102" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A102" s="140"/>
+      <c r="B102" s="140"/>
+      <c r="C102" s="140"/>
+      <c r="D102" s="140"/>
+      <c r="E102" s="140"/>
+      <c r="F102" s="140"/>
+      <c r="G102" s="140"/>
       <c r="N102" s="42"/>
     </row>
-    <row r="103">
-      <c r="A103" s="143"/>
-      <c r="B103" s="143"/>
-      <c r="C103" s="143"/>
-      <c r="D103" s="143"/>
-      <c r="E103" s="143"/>
-      <c r="F103" s="143"/>
-      <c r="G103" s="143"/>
+    <row r="103" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A103" s="140"/>
+      <c r="B103" s="140"/>
+      <c r="C103" s="140"/>
+      <c r="D103" s="140"/>
+      <c r="E103" s="140"/>
+      <c r="F103" s="140"/>
+      <c r="G103" s="140"/>
       <c r="N103" s="42"/>
     </row>
-    <row r="104">
-      <c r="A104" s="143"/>
-      <c r="B104" s="143"/>
-      <c r="C104" s="143"/>
-      <c r="D104" s="143"/>
-      <c r="E104" s="143"/>
-      <c r="F104" s="143"/>
-      <c r="G104" s="143"/>
+    <row r="104" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A104" s="140"/>
+      <c r="B104" s="140"/>
+      <c r="C104" s="140"/>
+      <c r="D104" s="140"/>
+      <c r="E104" s="140"/>
+      <c r="F104" s="140"/>
+      <c r="G104" s="140"/>
       <c r="N104" s="42"/>
     </row>
-    <row r="105">
-      <c r="A105" s="143"/>
-      <c r="B105" s="143"/>
-      <c r="C105" s="143"/>
-      <c r="D105" s="143"/>
-      <c r="E105" s="143"/>
-      <c r="F105" s="143"/>
-      <c r="G105" s="143"/>
+    <row r="105" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A105" s="140"/>
+      <c r="B105" s="140"/>
+      <c r="C105" s="140"/>
+      <c r="D105" s="140"/>
+      <c r="E105" s="140"/>
+      <c r="F105" s="140"/>
+      <c r="G105" s="140"/>
       <c r="N105" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="L40:N40"/>
     <mergeCell ref="Q51:R51"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="L32:O32"/>
@@ -5072,7 +5538,18 @@
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/misc/Retro Adapter connections.xlsx
+++ b/misc/Retro Adapter connections.xlsx
@@ -2045,7 +2045,7 @@
   <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H1" sqref="H1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
